--- a/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2018-19.xlsx
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>Montrezl Harrell</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>80.2%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Montrezl Harrell</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>72.2%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Danilo Gallinari</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1774,22 +1774,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>81.6%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>10.5</t>
         </is>
       </c>
     </row>
@@ -1819,17 +1819,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Danilo Gallinari</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1839,22 +1839,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>81.6%</t>
+          <t>58.3%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Derrick Favors</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>84.9%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-12.5</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>48.9%</t>
+          <t>57.7%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-8.9</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2749,22 +2749,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>48.9%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-13.4</t>
+          <t>-8.9</t>
         </is>
       </c>
     </row>
@@ -2794,42 +2794,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Derrick Favors</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>84.9%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-12.5</t>
+          <t>-13.4</t>
         </is>
       </c>
     </row>
@@ -4614,42 +4614,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>71.0%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -4679,42 +4679,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>71.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5619,12 +5619,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>76.7%</t>
+          <t>58.9%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>-14.7</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5664,12 +5664,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>76.7%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-14.7</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -5979,12 +5979,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Meyers Leonard</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5994,27 +5994,27 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>56.6%</t>
+          <t>71.1%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6044,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Meyers Leonard</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6059,27 +6059,27 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>71.1%</t>
+          <t>56.6%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -6109,17 +6109,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Rodions Kurucs</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-12.1</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -6174,37 +6174,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rodions Kurucs</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>59.5%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -6239,42 +6239,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>59.5%</t>
+          <t>67.6%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>60.1</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-12.1</t>
         </is>
       </c>
     </row>
@@ -6304,17 +6304,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Eric Bledsoe</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6324,22 +6324,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>55.4%</t>
+          <t>67.4%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -6369,17 +6369,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Eric Bledsoe</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6389,22 +6389,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>67.4%</t>
+          <t>55.4%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -7214,17 +7214,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7244,12 +7244,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>52.9%</t>
+          <t>57.4%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -7279,17 +7279,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>57.4%</t>
+          <t>52.9%</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7324,17 +7324,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -7474,22 +7474,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>72.2%</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -7539,22 +7539,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-9.0</t>
         </is>
       </c>
     </row>
@@ -8449,17 +8449,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8469,22 +8469,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>62.1%</t>
+          <t>81.8%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>-9.0</t>
         </is>
       </c>
     </row>
@@ -8579,17 +8579,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8599,22 +8599,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>81.8%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -8774,42 +8774,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Zaza Pachulia</t>
+          <t>Wes Iwundu</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Wes Iwundu</t>
+          <t>Nikola Mirotic</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8859,22 +8859,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>58.9%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -8904,17 +8904,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nikola Mirotic</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -8924,22 +8924,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>51.1%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>9.7</t>
         </is>
       </c>
     </row>
@@ -8969,42 +8969,42 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Zaza Pachulia</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>51.1%</t>
+          <t>88.9%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>22.4</t>
         </is>
       </c>
     </row>
@@ -9294,17 +9294,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tyreke Evans</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -9314,22 +9314,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>60.9%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Tyreke Evans</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9379,22 +9379,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>60.9%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -9944,42 +9944,42 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Jae Crowder</t>
+          <t>Jacob Evans</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>81.8%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jacob Evans</t>
+          <t>Jae Crowder</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>81.8%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-10.3</t>
         </is>
       </c>
     </row>
@@ -10789,22 +10789,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Theo Pinson</t>
+          <t>Thabo Sefolosha</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10814,17 +10814,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Thabo Sefolosha</t>
+          <t>Theo Pinson</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10944,17 +10944,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>24.2</t>
         </is>
       </c>
     </row>
@@ -11374,22 +11374,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -11404,12 +11404,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -11439,22 +11439,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -11469,12 +11469,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-28.0</t>
         </is>
       </c>
     </row>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Jake Layman</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -11599,12 +11599,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>-27.2</t>
         </is>
       </c>
     </row>
@@ -11634,22 +11634,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Amir Johnson</t>
+          <t>Jake Layman</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -11659,12 +11659,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>87.5%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>7.1</t>
         </is>
       </c>
     </row>
@@ -11699,22 +11699,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>Amir Johnson</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -11724,17 +11724,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-27.2</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -12024,17 +12024,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Patrick McCaw</t>
+          <t>Tim Frazier</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -12049,12 +12049,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>73.3%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12074,12 +12074,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>11.2</t>
         </is>
       </c>
     </row>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tim Frazier</t>
+          <t>Patrick McCaw</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12114,12 +12114,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>68.8%</t>
+          <t>73.3%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12139,12 +12139,12 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>12.1</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Jose Calderon</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12189,27 +12189,27 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
           <t>1.5</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>-46.1</t>
         </is>
       </c>
     </row>
@@ -12219,17 +12219,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Brad Wanamaker</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -12239,22 +12239,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-46.1</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Jose Calderon</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-39.3</t>
+          <t>51.2</t>
         </is>
       </c>
     </row>
@@ -12349,42 +12349,42 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Brad Wanamaker</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>-39.3</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Khyri Thomas</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12499,22 +12499,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>20.8</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Jodie Meeks</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -12554,32 +12554,32 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-14.4</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -12609,17 +12609,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Khyri Thomas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -12629,22 +12629,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>20.8</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jodie Meeks</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -12684,32 +12684,32 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-14.4</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Jerian Grant</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12824,22 +12824,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-52.8</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -12869,27 +12869,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12899,12 +12899,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-44.8</t>
+          <t>55.4</t>
         </is>
       </c>
     </row>
@@ -12999,17 +12999,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Jerian Grant</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13019,22 +13019,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13044,17 +13044,17 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-52.8</t>
         </is>
       </c>
     </row>
@@ -13064,17 +13064,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jon Leuer</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13084,42 +13084,42 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>-44.8</t>
         </is>
       </c>
     </row>
@@ -13129,32 +13129,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Sindarius Thornwell</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -13164,27 +13164,27 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -13194,42 +13194,42 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sindarius Thornwell</t>
+          <t>Jon Leuer</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>45.7</t>
         </is>
       </c>
     </row>
@@ -13519,17 +13519,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Dante Cunningham</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>35.4</t>
         </is>
       </c>
     </row>
@@ -13584,22 +13584,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Dante Cunningham</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13629,17 +13629,17 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-55.3</t>
+          <t>43.6</t>
         </is>
       </c>
     </row>
@@ -13649,22 +13649,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -13684,27 +13684,27 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>-55.3</t>
         </is>
       </c>
     </row>
@@ -13714,22 +13714,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Quincy Pondexter</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>48.7</t>
         </is>
       </c>
     </row>
@@ -13779,22 +13779,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Jarell Martin</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -13829,12 +13829,12 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>46.6</t>
         </is>
       </c>
     </row>
@@ -13844,17 +13844,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Jarell Martin</t>
+          <t>Quincy Pondexter</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -13894,12 +13894,12 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>56.4</t>
         </is>
       </c>
     </row>
